--- a/Results_Summary.xlsx
+++ b/Results_Summary.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/donaldd/Desktop/CWU/AY 18:19/Spring19/CS471/Labs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Coder\Desktop\CS471_proj3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF631B6E-81BD-405C-ADEB-6CC0E02EEEC9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>StdDev</t>
   </si>
@@ -102,12 +109,15 @@
   </si>
   <si>
     <t>GA (1 point crossover)</t>
+  </si>
+  <si>
+    <t>Andrew Dunn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -137,8 +147,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -148,6 +160,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -415,26 +430,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <v>24778635</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -442,7 +468,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>23</v>
       </c>
@@ -465,94 +491,472 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C6" s="1">
+        <v>1409.2846529999999</v>
+      </c>
+      <c r="D6" s="1">
+        <v>358.37572399999999</v>
+      </c>
+      <c r="E6" s="1">
+        <v>54.595722400000007</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3029.23</v>
+      </c>
+      <c r="H6" s="1">
+        <v>477.49</v>
+      </c>
+      <c r="I6" s="1">
+        <v>43</v>
+      </c>
+      <c r="J6" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C7" s="1">
+        <v>857.807546</v>
+      </c>
+      <c r="D7" s="1">
+        <v>308.67808000000002</v>
+      </c>
+      <c r="E7" s="1">
+        <v>38.948680659999994</v>
+      </c>
+      <c r="G7" s="1">
+        <v>304950.86</v>
+      </c>
+      <c r="H7" s="1">
+        <v>27.6</v>
+      </c>
+      <c r="I7" s="1">
+        <v>11.3</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C8" s="1">
+        <v>40871057.693999998</v>
+      </c>
+      <c r="D8" s="1">
+        <v>34468711.682535999</v>
+      </c>
+      <c r="E8" s="1">
+        <v>39.658864219999991</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-28394.98</v>
+      </c>
+      <c r="H8" s="1">
+        <v>193170.45</v>
+      </c>
+      <c r="I8" s="1">
+        <v>12.71</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C9" s="1">
+        <v>-19799.064387999999</v>
+      </c>
+      <c r="D9" s="1">
+        <v>14723.424698000001</v>
+      </c>
+      <c r="E9" s="1">
+        <v>52.806317119999996</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-32180.240000000002</v>
+      </c>
+      <c r="H9" s="1">
+        <v>20721.2</v>
+      </c>
+      <c r="I9" s="1">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="J9" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C10" s="1">
+        <v>6.1660950000000003</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.4862160000000002</v>
+      </c>
+      <c r="E10" s="1">
+        <v>59.049446659999994</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1.53</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="I10" s="1">
+        <v>34.659999999999997</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C11" s="1">
+        <v>-38.566840999999997</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.86362300000000003</v>
+      </c>
+      <c r="E11" s="1">
+        <v>52.060822939999987</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-35.68</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I11" s="1">
+        <v>30.23</v>
+      </c>
+      <c r="J11" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C12" s="1">
+        <v>31.309248</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.647397</v>
+      </c>
+      <c r="E12" s="1">
+        <v>97.084699100000023</v>
+      </c>
+      <c r="G12" s="1">
+        <v>40.49</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1.21</v>
+      </c>
+      <c r="I12" s="1">
+        <v>74.94</v>
+      </c>
+      <c r="J12" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C13" s="1">
+        <v>-37.672130000000003</v>
+      </c>
+      <c r="D13" s="1">
+        <v>11.877742</v>
+      </c>
+      <c r="E13" s="1">
+        <v>66.055679020000014</v>
+      </c>
+      <c r="G13" s="1">
+        <v>-41.49</v>
+      </c>
+      <c r="H13" s="1">
+        <v>24.77</v>
+      </c>
+      <c r="I13" s="1">
+        <v>53.53</v>
+      </c>
+      <c r="J13" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C14" s="1">
+        <v>117.77324400000001</v>
+      </c>
+      <c r="D14" s="1">
+        <v>13.508431</v>
+      </c>
+      <c r="E14" s="1">
+        <v>116.3087795</v>
+      </c>
+      <c r="G14" s="1">
+        <v>79.28</v>
+      </c>
+      <c r="H14" s="1">
+        <v>32.67</v>
+      </c>
+      <c r="I14" s="1">
+        <v>100.39</v>
+      </c>
+      <c r="J14" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C15" s="1">
+        <v>-12407.266672</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1249.221689</v>
+      </c>
+      <c r="E15" s="1">
+        <v>60.921198299999993</v>
+      </c>
+      <c r="G15" s="1">
+        <v>-15502.46</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1187.81</v>
+      </c>
+      <c r="I15" s="1">
+        <v>60.31</v>
+      </c>
+      <c r="J15" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C16" s="1">
+        <v>-7882.0190220000004</v>
+      </c>
+      <c r="D16" s="1">
+        <v>598.52599999999995</v>
+      </c>
+      <c r="E16" s="1">
+        <v>92.913755760000001</v>
+      </c>
+      <c r="G16" s="1">
+        <v>-9995.4699999999993</v>
+      </c>
+      <c r="H16" s="1">
+        <v>922.6</v>
+      </c>
+      <c r="I16" s="1">
+        <v>87.81</v>
+      </c>
+      <c r="J16" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C17" s="1">
+        <v>6.9465209999999997</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.46650200000000003</v>
+      </c>
+      <c r="E17" s="1">
+        <v>56.800989159999993</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4.34</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="I17" s="1">
+        <v>36.32</v>
+      </c>
+      <c r="J17" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C18" s="1">
+        <v>-24.842780999999999</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.0110680000000001</v>
+      </c>
+      <c r="E18" s="1">
+        <v>87.405251000000021</v>
+      </c>
+      <c r="G18" s="1">
+        <v>-16.18</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="I18" s="1">
+        <v>71.11</v>
+      </c>
+      <c r="J18" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C19" s="1">
+        <v>-9.7154740000000004</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.8676349999999999</v>
+      </c>
+      <c r="E19" s="1">
+        <v>78.099524700000032</v>
+      </c>
+      <c r="G19" s="1">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="I19" s="1">
+        <v>70.91</v>
+      </c>
+      <c r="J19" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C20" s="1">
+        <v>6859130.1339999996</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5289334.1421229998</v>
+      </c>
+      <c r="E20" s="1">
+        <v>40.682697260000005</v>
+      </c>
+      <c r="G20" s="1">
+        <v>43635.68</v>
+      </c>
+      <c r="H20" s="1">
+        <v>23424.97</v>
+      </c>
+      <c r="I20" s="1">
+        <v>12.1</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C21" s="1">
+        <v>5.7719880000000003</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.962127</v>
+      </c>
+      <c r="E21" s="1">
+        <v>55.690761039999991</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1.44</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="I21" s="1">
+        <v>31.58</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C22" s="1">
+        <v>859.67976499999997</v>
+      </c>
+      <c r="D22" s="1">
+        <v>353.307661</v>
+      </c>
+      <c r="E22" s="1">
+        <v>39.062252899999997</v>
+      </c>
+      <c r="G22" s="1">
+        <v>131.86000000000001</v>
+      </c>
+      <c r="H22" s="1">
+        <v>30.43</v>
+      </c>
+      <c r="I22" s="1">
+        <v>11.62</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>19</v>
+      </c>
+      <c r="C23" s="1">
+        <v>35.976585</v>
+      </c>
+      <c r="D23" s="1">
+        <v>8.5995939999999997</v>
+      </c>
+      <c r="E23" s="1">
+        <v>52.663027800000002</v>
+      </c>
+      <c r="G23" s="1">
+        <v>73.819999999999993</v>
+      </c>
+      <c r="H23" s="1">
+        <v>26.81</v>
+      </c>
+      <c r="I23" s="1">
+        <v>42.82</v>
+      </c>
+      <c r="J23" s="2">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
